--- a/Day09~/Excel/output/output06.xlsx
+++ b/Day09~/Excel/output/output06.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="jan_13_output" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="out_january_2013" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,64 +466,43 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2345</v>
+        <v>5678</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mary Harrison</t>
+          <t>Jenny Walters</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>100-0003</t>
+          <t>100-0006</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1425</v>
+        <v>1725</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>41280</v>
+        <v>41298</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5678</v>
+        <v>6789</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jenny Walters</t>
+          <t>Samantha Donaldson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>100-0006</t>
+          <t>100-0007</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1725</v>
+        <v>1995</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>41298</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6789</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Samantha Donaldson</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>100-0007</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1995</v>
-      </c>
-      <c r="E4" s="2" t="n">
         <v>41305</v>
       </c>
     </row>
